--- a/data/mock/csv/lotes.xlsx
+++ b/data/mock/csv/lotes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="41">
   <si>
     <t>Braford</t>
   </si>
@@ -45,9 +45,6 @@
     <t>mollie</t>
   </si>
   <si>
-    <t>claudia</t>
-  </si>
-  <si>
     <t>Holando Argentino</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>90 días</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>raza</t>
   </si>
   <si>
@@ -130,13 +124,28 @@
   </si>
   <si>
     <t>pago</t>
+  </si>
+  <si>
+    <t>consignatario</t>
+  </si>
+  <si>
+    <t>lurati</t>
+  </si>
+  <si>
+    <t>jorgel</t>
+  </si>
+  <si>
+    <t>propietario</t>
+  </si>
+  <si>
+    <t>sarala</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +155,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -179,13 +196,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,35 +520,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A3" sqref="A3:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -546,8 +570,11 @@
       <c r="F2" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -555,19 +582,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -575,59 +605,68 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>300</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1100</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>4200</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -635,19 +674,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2100</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -655,99 +697,114 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>4200</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
       </c>
       <c r="E9">
         <v>5500</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>10000</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>5500</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2100</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -755,19 +812,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3000</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -775,79 +835,91 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>7000</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1100</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2100</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>10000</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -855,19 +927,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>3000</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -875,79 +950,91 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2100</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>300</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>4200</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>300</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -955,59 +1042,68 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>4200</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>3000</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>10000</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1015,119 +1111,137 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>4200</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>5500</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3000</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>1500</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>2100</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>10000</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1135,136 +1249,157 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>3000</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>10000</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
         <v>15</v>
       </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>2100</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35">
         <v>5500</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
         <v>15</v>
       </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36">
         <v>4200</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <v>5500</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38">
         <v>4200</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/mock/csv/lotes.xlsx
+++ b/data/mock/csv/lotes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="43">
   <si>
     <t>Braford</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>sarala</t>
+  </si>
+  <si>
+    <t>lote</t>
+  </si>
+  <si>
+    <t>aviso</t>
   </si>
 </sst>
 </file>
@@ -162,15 +168,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +217,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,81 +533,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G38"/>
+      <selection activeCell="D32" activeCellId="16" sqref="D5 D8 D9 D11 D12 D14 D15 D17 D18 D20 D22 D24 D27 D26 D29 D31 D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E3" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F3" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G3" s="3">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>3000</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -608,13 +611,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>300</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
+        <v>3000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>37</v>
@@ -625,22 +628,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -648,45 +651,45 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>4200</v>
+        <v>1100</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>37</v>
+      <c r="G7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -697,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8">
-        <v>4200</v>
+        <v>2100</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -717,22 +720,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>5500</v>
+        <v>4200</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -740,22 +743,22 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -763,22 +766,22 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -786,45 +789,45 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2100</v>
+        <v>5500</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -835,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -855,19 +858,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1100</v>
+        <v>7000</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
         <v>1</v>
@@ -878,19 +881,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
         <v>1</v>
@@ -901,45 +904,45 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>10000</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>37</v>
+        <v>2100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>3000</v>
-      </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s">
-        <v>2</v>
+        <v>10000</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -950,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -970,22 +973,22 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>300</v>
+        <v>2100</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -993,22 +996,22 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>4200</v>
+        <v>300</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1016,45 +1019,45 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>300</v>
+        <v>4200</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E23">
-        <v>4200</v>
+        <v>300</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1062,22 +1065,22 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>3000</v>
+        <v>4200</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,45 +1088,45 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
       <c r="E26">
-        <v>4200</v>
+        <v>10000</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1131,22 +1134,22 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E27">
-        <v>5500</v>
+        <v>4200</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1154,22 +1157,22 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E28">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1177,19 +1180,19 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>37</v>
@@ -1197,25 +1200,25 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" t="s">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1223,7 +1226,7 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
@@ -1232,33 +1235,33 @@
         <v>22</v>
       </c>
       <c r="E31">
-        <v>10000</v>
+        <v>2100</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E32">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G32" t="s">
         <v>1</v>
@@ -1269,22 +1272,22 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E33">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1292,19 +1295,19 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34">
-        <v>2100</v>
+        <v>10000</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>37</v>
@@ -1315,42 +1318,42 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35">
-        <v>5500</v>
+        <v>2100</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" t="s">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E36">
-        <v>4200</v>
+        <v>5500</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
         <v>2</v>
@@ -1360,49 +1363,76 @@
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>11</v>
+      <c r="B37" t="s">
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E37">
-        <v>5500</v>
+        <v>4200</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38">
+        <v>5500</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>16</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>21</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>4200</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>29</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/data/mock/csv/lotes.xlsx
+++ b/data/mock/csv/lotes.xlsx
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" activeCellId="16" sqref="D5 D8 D9 D11 D12 D14 D15 D17 D18 D20 D22 D24 D27 D26 D29 D31 D32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/mock/csv/lotes.xlsx
+++ b/data/mock/csv/lotes.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$D$1:$D$39</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -151,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +172,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -207,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -220,6 +231,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,7 +990,7 @@
       <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E20">
@@ -1429,6 +1441,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D39"/>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>

--- a/data/mock/csv/lotes.xlsx
+++ b/data/mock/csv/lotes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="61">
   <si>
     <t>Braford</t>
   </si>
@@ -148,13 +148,67 @@
   </si>
   <si>
     <t>aviso</t>
+  </si>
+  <si>
+    <t>ubicación</t>
+  </si>
+  <si>
+    <t>provincia</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Santa Fé</t>
+  </si>
+  <si>
+    <t>La Pampa</t>
+  </si>
+  <si>
+    <t>San Luis</t>
+  </si>
+  <si>
+    <t>Corrientes</t>
+  </si>
+  <si>
+    <t>Glew</t>
+  </si>
+  <si>
+    <t>Ranchos</t>
+  </si>
+  <si>
+    <t>Pila</t>
+  </si>
+  <si>
+    <t>Victorica</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>Merlo</t>
+  </si>
+  <si>
+    <t>Salto</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Rio Segundo</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Venado Tuerto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,14 +226,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -218,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -231,7 +277,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,15 +590,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -566,7 +611,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -588,8 +633,14 @@
       <c r="G2" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -611,8 +662,14 @@
       <c r="G3" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -634,8 +691,14 @@
       <c r="G4" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -657,8 +720,14 @@
       <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -680,8 +749,14 @@
       <c r="G6" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -703,8 +778,14 @@
       <c r="G7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -726,8 +807,14 @@
       <c r="G8" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -749,8 +836,14 @@
       <c r="G9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -772,8 +865,14 @@
       <c r="G10" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -795,8 +894,14 @@
       <c r="G11" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -818,8 +923,14 @@
       <c r="G12" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -841,8 +952,14 @@
       <c r="G13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -864,8 +981,14 @@
       <c r="G14" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -887,8 +1010,14 @@
       <c r="G15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -910,8 +1039,14 @@
       <c r="G16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -933,8 +1068,14 @@
       <c r="G17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -956,8 +1097,14 @@
       <c r="G18" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -979,8 +1126,14 @@
       <c r="G19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -990,7 +1143,7 @@
       <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E20">
@@ -1002,8 +1155,14 @@
       <c r="G20" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1025,8 +1184,14 @@
       <c r="G21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1048,8 +1213,14 @@
       <c r="G22" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1071,8 +1242,14 @@
       <c r="G23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1094,8 +1271,14 @@
       <c r="G24" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1117,8 +1300,14 @@
       <c r="G25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1140,8 +1329,14 @@
       <c r="G26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1163,8 +1358,14 @@
       <c r="G27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1186,8 +1387,14 @@
       <c r="G28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1209,8 +1416,14 @@
       <c r="G29" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1232,8 +1445,14 @@
       <c r="G30" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1255,8 +1474,14 @@
       <c r="G31" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1278,8 +1503,14 @@
       <c r="G32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1301,8 +1532,14 @@
       <c r="G33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1324,8 +1561,14 @@
       <c r="G34" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1347,8 +1590,14 @@
       <c r="G35" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1370,8 +1619,14 @@
       <c r="G36" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1393,8 +1648,14 @@
       <c r="G37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1416,8 +1677,14 @@
       <c r="G38" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1438,6 +1705,12 @@
       </c>
       <c r="G39" t="s">
         <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
